--- a/LM_ProductBacklog.xlsx
+++ b/LM_ProductBacklog.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DEV\Love-Mirroring\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE77B905-1D24-46A1-9EE9-7AA5A480EEC9}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{482A62E5-AF42-4FDE-AF4E-7F0A4F85AA63}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ProductBacklog" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="89">
   <si>
     <t>x</t>
   </si>
@@ -244,6 +244,54 @@
   </si>
   <si>
     <t>Product Backlog</t>
+  </si>
+  <si>
+    <t>ChatBot</t>
+  </si>
+  <si>
+    <t>Récupérer les photos de profil d'un compte externe</t>
+  </si>
+  <si>
+    <t>Hans</t>
+  </si>
+  <si>
+    <t>Tim</t>
+  </si>
+  <si>
+    <t>Seb</t>
+  </si>
+  <si>
+    <t>Paul</t>
+  </si>
+  <si>
+    <t>Restreindre certaines actions sur compte externe</t>
+  </si>
+  <si>
+    <t>Ajouter emoji</t>
+  </si>
+  <si>
+    <t>Résumer profil sur une page</t>
+  </si>
+  <si>
+    <t>Intégrer l'algorithme de match</t>
+  </si>
+  <si>
+    <t>Seb et Tim</t>
+  </si>
+  <si>
+    <t>Avoir toujours au moins un admin</t>
+  </si>
+  <si>
+    <t>Ajouter signalR et filtrer messages sur le chat privé</t>
+  </si>
+  <si>
+    <t>Inviter l'utilisateur à se connecter avec un 401</t>
+  </si>
+  <si>
+    <t>Afficher la liste d'utilisateurs sur le chat général</t>
+  </si>
+  <si>
+    <t>Intégrer le changement de langue</t>
   </si>
 </sst>
 </file>
@@ -396,7 +444,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -478,6 +526,7 @@
     <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -758,10 +807,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99E4F70C-6BA7-4190-9FB4-D13AF4EA1C61}">
-  <dimension ref="C6:H86"/>
+  <dimension ref="C6:I97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="F85" sqref="F85"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="C89" sqref="C89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
@@ -915,7 +964,7 @@
       <c r="G16" s="30"/>
       <c r="H16" s="29"/>
     </row>
-    <row r="17" spans="3:8" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:9" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C17" s="28" t="s">
         <v>58</v>
       </c>
@@ -929,7 +978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="3:8" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:9" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C18" s="28" t="s">
         <v>57</v>
       </c>
@@ -943,7 +992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="3:8" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:9" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C19" s="28" t="s">
         <v>56</v>
       </c>
@@ -957,7 +1006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="3:8" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:9" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C20" s="28" t="s">
         <v>55</v>
       </c>
@@ -968,8 +1017,11 @@
       </c>
       <c r="G20" s="28"/>
       <c r="H20" s="28"/>
-    </row>
-    <row r="21" spans="3:8" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="I20" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="21" spans="3:9" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C21" s="28" t="s">
         <v>54</v>
       </c>
@@ -981,7 +1033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="3:8" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:9" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C22" s="28" t="s">
         <v>53</v>
       </c>
@@ -995,45 +1047,46 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="3:8" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="15"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="4"/>
-    </row>
-    <row r="24" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C24" s="26" t="s">
+    <row r="23" spans="3:9" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C23" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="D23" s="28"/>
+      <c r="E23" s="27"/>
+      <c r="F23" s="27"/>
+      <c r="G23" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="H23" s="27"/>
+      <c r="I23" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="24" spans="3:9" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
+    </row>
+    <row r="25" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C25" s="26" t="s">
         <v>52</v>
       </c>
-      <c r="D24" s="26"/>
-      <c r="E24" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="F24" s="26"/>
-      <c r="G24" s="26"/>
-      <c r="H24" s="23" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="3:8" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="C25" s="24" t="s">
+      <c r="D25" s="26"/>
+      <c r="E25" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="F25" s="26"/>
+      <c r="G25" s="26"/>
+      <c r="H25" s="23" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:9" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C26" s="24" t="s">
         <v>51</v>
-      </c>
-      <c r="D25" s="24"/>
-      <c r="E25" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="F25" s="24"/>
-      <c r="G25" s="24"/>
-      <c r="H25" s="23" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="3:8" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="C26" s="24" t="s">
-        <v>50</v>
       </c>
       <c r="D26" s="24"/>
       <c r="E26" s="25" t="s">
@@ -1045,129 +1098,132 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="3:8" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="15"/>
-      <c r="F27" s="4"/>
-      <c r="G27" s="4"/>
-      <c r="H27" s="5"/>
-    </row>
-    <row r="28" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C28" s="22" t="s">
+    <row r="27" spans="3:9" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C27" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="D27" s="24"/>
+      <c r="E27" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="F27" s="24"/>
+      <c r="G27" s="24"/>
+      <c r="H27" s="23" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:9" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="15"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="5"/>
+    </row>
+    <row r="29" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C29" s="22" t="s">
         <v>49</v>
-      </c>
-      <c r="D28" s="21"/>
-      <c r="E28" s="21"/>
-      <c r="F28" s="20"/>
-      <c r="G28" s="21"/>
-      <c r="H28" s="21"/>
-    </row>
-    <row r="29" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C29" s="21" t="s">
-        <v>48</v>
       </c>
       <c r="D29" s="21"/>
       <c r="E29" s="21"/>
-      <c r="F29" s="20" t="s">
-        <v>0</v>
-      </c>
+      <c r="F29" s="20"/>
       <c r="G29" s="21"/>
-      <c r="H29" s="20" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="H29" s="21"/>
+    </row>
+    <row r="30" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C30" s="21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D30" s="21"/>
       <c r="E30" s="21"/>
-      <c r="F30" s="20"/>
-      <c r="G30" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="H30" s="21"/>
-    </row>
-    <row r="31" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="F30" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="G30" s="21"/>
+      <c r="H30" s="20" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C31" s="21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D31" s="21"/>
       <c r="E31" s="21"/>
-      <c r="F31" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="G31" s="21"/>
-      <c r="H31" s="20" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="3:8" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C32" s="4"/>
-      <c r="D32" s="4"/>
-      <c r="E32" s="4"/>
-      <c r="F32" s="4"/>
-      <c r="G32" s="4"/>
-      <c r="H32" s="4"/>
-    </row>
-    <row r="33" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C33" s="19" t="s">
+      <c r="F31" s="20"/>
+      <c r="G31" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="H31" s="22"/>
+      <c r="I31" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="32" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C32" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="D32" s="21"/>
+      <c r="E32" s="21"/>
+      <c r="F32" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="G32" s="21"/>
+      <c r="H32" s="20" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C33" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="D33" s="21"/>
+      <c r="E33" s="21"/>
+      <c r="F33" s="20"/>
+      <c r="G33" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="H33" s="20"/>
+      <c r="I33" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="34" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C34" s="21" t="s">
+        <v>87</v>
+      </c>
+      <c r="D34" s="21"/>
+      <c r="E34" s="21"/>
+      <c r="F34" s="20"/>
+      <c r="G34" s="20"/>
+      <c r="H34" s="20"/>
+      <c r="I34" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="35" spans="3:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C35" s="4"/>
+      <c r="D35" s="4"/>
+      <c r="E35" s="4"/>
+      <c r="F35" s="4"/>
+      <c r="G35" s="4"/>
+      <c r="H35" s="4"/>
+    </row>
+    <row r="36" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C36" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="D33" s="19"/>
-      <c r="E33" s="18"/>
-      <c r="F33" s="19"/>
-      <c r="G33" s="19"/>
-      <c r="H33" s="16" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="3:8" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="C34" s="17" t="s">
+      <c r="D36" s="19"/>
+      <c r="E36" s="18"/>
+      <c r="F36" s="19"/>
+      <c r="G36" s="19"/>
+      <c r="H36" s="16" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="3:9" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C37" s="17" t="s">
         <v>44</v>
-      </c>
-      <c r="D34" s="17"/>
-      <c r="E34" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="F34" s="17"/>
-      <c r="G34" s="17"/>
-      <c r="H34" s="16" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="3:8" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="C35" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="D35" s="17"/>
-      <c r="E35" s="18"/>
-      <c r="F35" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="G35" s="17"/>
-      <c r="H35" s="16" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="3:8" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="C36" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="D36" s="17"/>
-      <c r="E36" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="F36" s="17"/>
-      <c r="G36" s="17"/>
-      <c r="H36" s="16" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="3:8" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="C37" s="17" t="s">
-        <v>41</v>
       </c>
       <c r="D37" s="17"/>
       <c r="E37" s="18" t="s">
@@ -1179,9 +1235,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="3:8" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:9" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C38" s="17" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="D38" s="17"/>
       <c r="E38" s="18"/>
@@ -1193,161 +1249,164 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="3:8" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:9" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C39" s="17" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D39" s="17"/>
-      <c r="E39" s="18"/>
-      <c r="F39" s="16" t="s">
-        <v>0</v>
-      </c>
+      <c r="E39" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="F39" s="17"/>
       <c r="G39" s="17"/>
       <c r="H39" s="16" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="3:8" ht="6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C40" s="4"/>
-      <c r="D40" s="4"/>
-      <c r="E40" s="15"/>
-      <c r="F40" s="4"/>
-      <c r="G40" s="4"/>
-      <c r="H40" s="4"/>
-    </row>
-    <row r="41" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C41" s="14" t="s">
+    <row r="40" spans="3:9" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C40" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="D40" s="17"/>
+      <c r="E40" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="F40" s="17"/>
+      <c r="G40" s="17"/>
+      <c r="H40" s="16" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="3:9" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C41" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="D41" s="17"/>
+      <c r="E41" s="18"/>
+      <c r="F41" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="G41" s="17"/>
+      <c r="H41" s="16" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="3:9" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C42" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="D42" s="17"/>
+      <c r="E42" s="18"/>
+      <c r="F42" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="G42" s="17"/>
+      <c r="H42" s="16" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="3:9" ht="6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C43" s="4"/>
+      <c r="D43" s="4"/>
+      <c r="E43" s="15"/>
+      <c r="F43" s="4"/>
+      <c r="G43" s="4"/>
+      <c r="H43" s="4"/>
+    </row>
+    <row r="44" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C44" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="D41" s="14"/>
-      <c r="E41" s="12"/>
-      <c r="F41" s="14"/>
-      <c r="G41" s="14"/>
-      <c r="H41" s="12" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="3:8" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="C42" s="13" t="s">
+      <c r="D44" s="14"/>
+      <c r="E44" s="12"/>
+      <c r="F44" s="14"/>
+      <c r="G44" s="14"/>
+      <c r="H44" s="12" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="3:9" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C45" s="13" t="s">
         <v>37</v>
-      </c>
-      <c r="D42" s="13"/>
-      <c r="E42" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="F42" s="13"/>
-      <c r="G42" s="13"/>
-      <c r="H42" s="13"/>
-    </row>
-    <row r="43" spans="3:8" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="C43" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="D43" s="13"/>
-      <c r="E43" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="F43" s="13"/>
-      <c r="G43" s="13"/>
-      <c r="H43" s="13"/>
-    </row>
-    <row r="44" spans="3:8" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="C44" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="D44" s="13"/>
-      <c r="E44" s="12"/>
-      <c r="F44" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="G44" s="13"/>
-      <c r="H44" s="12" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="3:8" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="C45" s="13" t="s">
-        <v>34</v>
       </c>
       <c r="D45" s="13"/>
       <c r="E45" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="F45" s="12"/>
+      <c r="F45" s="13"/>
       <c r="G45" s="13"/>
-      <c r="H45" s="12"/>
-    </row>
-    <row r="46" spans="3:8" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="H45" s="13"/>
+    </row>
+    <row r="46" spans="3:9" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C46" s="13" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D46" s="13"/>
-      <c r="E46" s="12"/>
-      <c r="F46" s="12" t="s">
-        <v>0</v>
-      </c>
+      <c r="E46" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="F46" s="13"/>
       <c r="G46" s="13"/>
-      <c r="H46" s="12" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="3:8" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="H46" s="13"/>
+    </row>
+    <row r="47" spans="3:9" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C47" s="13" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D47" s="13"/>
       <c r="E47" s="12"/>
-      <c r="F47" s="12"/>
-      <c r="G47" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="H47" s="12"/>
-    </row>
-    <row r="48" spans="3:8" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="F47" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="G47" s="13"/>
+      <c r="H47" s="12" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="3:9" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C48" s="13" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D48" s="13"/>
-      <c r="E48" s="12"/>
-      <c r="F48" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="G48" s="12"/>
-      <c r="H48" s="12" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="3:8" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="E48" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="F48" s="12"/>
+      <c r="G48" s="13"/>
+      <c r="H48" s="12"/>
+    </row>
+    <row r="49" spans="3:9" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C49" s="13" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D49" s="13"/>
       <c r="E49" s="12"/>
       <c r="F49" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="G49" s="12"/>
+      <c r="G49" s="13"/>
       <c r="H49" s="12" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="3:8" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:9" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C50" s="13" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D50" s="13"/>
       <c r="E50" s="12"/>
-      <c r="F50" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="G50" s="12"/>
-      <c r="H50" s="12" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="3:8" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="F50" s="12"/>
+      <c r="G50" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="H50" s="12"/>
+      <c r="I50" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="51" spans="3:9" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C51" s="13" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D51" s="13"/>
       <c r="E51" s="12"/>
@@ -1359,9 +1418,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="3:8" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:9" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C52" s="13" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D52" s="13"/>
       <c r="E52" s="12"/>
@@ -1373,9 +1432,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="3:8" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:9" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C53" s="13" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D53" s="13"/>
       <c r="E53" s="12"/>
@@ -1387,339 +1446,374 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="3:8" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C54" s="4"/>
-      <c r="D54" s="4"/>
-      <c r="E54" s="5"/>
-      <c r="F54" s="4"/>
-      <c r="G54" s="4"/>
-      <c r="H54" s="4"/>
-    </row>
-    <row r="55" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C55" s="2" t="s">
+    <row r="54" spans="3:9" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C54" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="D54" s="13"/>
+      <c r="E54" s="12"/>
+      <c r="F54" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="G54" s="12"/>
+      <c r="H54" s="12" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:9" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C55" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D55" s="13"/>
+      <c r="E55" s="12"/>
+      <c r="F55" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="G55" s="12"/>
+      <c r="H55" s="12" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="3:9" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C56" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D56" s="13"/>
+      <c r="E56" s="12"/>
+      <c r="F56" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="G56" s="12"/>
+      <c r="H56" s="12" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="3:9" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C57" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="D57" s="13"/>
+      <c r="E57" s="12"/>
+      <c r="F57" s="12"/>
+      <c r="G57" s="12"/>
+      <c r="H57" s="12"/>
+      <c r="I57" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="58" spans="3:9" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C58" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="D58" s="13"/>
+      <c r="E58" s="12"/>
+      <c r="F58" s="12"/>
+      <c r="G58" s="12"/>
+      <c r="H58" s="12"/>
+      <c r="I58" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="59" spans="3:9" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C59" s="4"/>
+      <c r="D59" s="4"/>
+      <c r="E59" s="5"/>
+      <c r="F59" s="4"/>
+      <c r="G59" s="4"/>
+      <c r="H59" s="4"/>
+    </row>
+    <row r="60" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C60" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D55" s="2"/>
-      <c r="E55" s="2"/>
-      <c r="F55" s="2"/>
-      <c r="G55" s="2"/>
-      <c r="H55" s="2"/>
-    </row>
-    <row r="56" spans="3:8" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C56" s="4"/>
-      <c r="D56" s="4"/>
-      <c r="E56" s="4"/>
-      <c r="F56" s="4"/>
-      <c r="G56" s="4"/>
-      <c r="H56" s="4"/>
-    </row>
-    <row r="57" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C57" s="2" t="s">
+      <c r="D60" s="2"/>
+      <c r="E60" s="2"/>
+      <c r="F60" s="2"/>
+      <c r="G60" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H60" s="2"/>
+    </row>
+    <row r="61" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C61" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D61" s="2"/>
+      <c r="E61" s="2"/>
+      <c r="F61" s="2"/>
+      <c r="G61" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H61" s="2"/>
+      <c r="I61" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="62" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C62" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D62" s="2"/>
+      <c r="E62" s="2"/>
+      <c r="F62" s="2"/>
+      <c r="G62" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H62" s="2"/>
+      <c r="I62" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="63" spans="3:9" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C63" s="4"/>
+      <c r="D63" s="4"/>
+      <c r="E63" s="4"/>
+      <c r="F63" s="4"/>
+      <c r="G63" s="4"/>
+      <c r="H63" s="4"/>
+    </row>
+    <row r="64" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C64" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D57" s="2"/>
-      <c r="E57" s="2"/>
-      <c r="F57" s="1"/>
-      <c r="G57" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H57" s="2"/>
-    </row>
-    <row r="58" spans="3:8" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C58" s="4"/>
-      <c r="D58" s="4"/>
-      <c r="E58" s="4"/>
-      <c r="F58" s="4"/>
-      <c r="G58" s="4"/>
-      <c r="H58" s="4"/>
-    </row>
-    <row r="59" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C59" s="11" t="s">
+      <c r="D64" s="2"/>
+      <c r="E64" s="2"/>
+      <c r="F64" s="1"/>
+      <c r="G64" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H64" s="2"/>
+      <c r="I64" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="65" spans="3:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C65" s="4"/>
+      <c r="D65" s="4"/>
+      <c r="E65" s="4"/>
+      <c r="F65" s="4"/>
+      <c r="G65" s="4"/>
+      <c r="H65" s="4"/>
+    </row>
+    <row r="66" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C66" s="11" t="s">
         <v>23</v>
-      </c>
-      <c r="D59" s="10"/>
-      <c r="E59" s="10"/>
-      <c r="F59" s="11"/>
-      <c r="G59" s="11"/>
-      <c r="H59" s="11"/>
-    </row>
-    <row r="60" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C60" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="D60" s="10"/>
-      <c r="E60" s="10"/>
-      <c r="F60" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="G60" s="11"/>
-      <c r="H60" s="10" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C61" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="D61" s="10"/>
-      <c r="E61" s="10"/>
-      <c r="F61" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="G61" s="11"/>
-      <c r="H61" s="10" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="3:8" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="C62" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="D62" s="10"/>
-      <c r="E62" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="F62" s="9"/>
-      <c r="G62" s="9"/>
-      <c r="H62" s="10" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="3:8" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="C63" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="D63" s="10"/>
-      <c r="E63" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="F63" s="9"/>
-      <c r="G63" s="9"/>
-      <c r="H63" s="10" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="3:8" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="C64" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D64" s="10"/>
-      <c r="E64" s="10"/>
-      <c r="F64" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="G64" s="9"/>
-      <c r="H64" s="10" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="3:8" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="C65" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="D65" s="10"/>
-      <c r="E65" s="10"/>
-      <c r="F65" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="G65" s="9"/>
-      <c r="H65" s="10" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="3:8" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="C66" s="9" t="s">
-        <v>16</v>
       </c>
       <c r="D66" s="10"/>
       <c r="E66" s="10"/>
-      <c r="F66" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="G66" s="9"/>
-      <c r="H66" s="10" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="3:8" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="F66" s="11"/>
+      <c r="G66" s="11"/>
+      <c r="H66" s="11"/>
+    </row>
+    <row r="67" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C67" s="9" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="D67" s="10"/>
       <c r="E67" s="10"/>
-      <c r="F67" s="9"/>
-      <c r="G67" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="H67" s="9"/>
-    </row>
-    <row r="68" spans="3:8" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C68" s="4"/>
-      <c r="D68" s="5"/>
-      <c r="E68" s="5"/>
-      <c r="F68" s="4"/>
-      <c r="G68" s="4"/>
-      <c r="H68" s="4"/>
-    </row>
-    <row r="69" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C69" s="8" t="s">
+      <c r="F67" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="G67" s="11"/>
+      <c r="H67" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="I67" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="68" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C68" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D68" s="10"/>
+      <c r="E68" s="10"/>
+      <c r="F68" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="G68" s="11"/>
+      <c r="H68" s="10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="3:9" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C69" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D69" s="10"/>
+      <c r="E69" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="F69" s="9"/>
+      <c r="G69" s="9"/>
+      <c r="H69" s="10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="3:9" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C70" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D70" s="10"/>
+      <c r="E70" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="F70" s="9"/>
+      <c r="G70" s="9"/>
+      <c r="H70" s="10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="3:9" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C71" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D71" s="10"/>
+      <c r="E71" s="10"/>
+      <c r="F71" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="G71" s="9"/>
+      <c r="H71" s="10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="3:9" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C72" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D72" s="10"/>
+      <c r="E72" s="10"/>
+      <c r="F72" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="G72" s="9"/>
+      <c r="H72" s="10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="3:9" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C73" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D73" s="10"/>
+      <c r="E73" s="10"/>
+      <c r="F73" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="G73" s="9"/>
+      <c r="H73" s="10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="3:9" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C74" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D74" s="10"/>
+      <c r="E74" s="10"/>
+      <c r="F74" s="9"/>
+      <c r="G74" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="H74" s="9"/>
+    </row>
+    <row r="75" spans="3:9" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C75" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="D75" s="10"/>
+      <c r="E75" s="10"/>
+      <c r="F75" s="9"/>
+      <c r="G75" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="H75" s="9"/>
+      <c r="I75" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="76" spans="3:9" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C76" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="D76" s="10"/>
+      <c r="E76" s="10"/>
+      <c r="F76" s="9"/>
+      <c r="G76" s="10"/>
+      <c r="H76" s="9"/>
+      <c r="I76" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="77" spans="3:9" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C77" s="4"/>
+      <c r="D77" s="5"/>
+      <c r="E77" s="5"/>
+      <c r="F77" s="4"/>
+      <c r="G77" s="4"/>
+      <c r="H77" s="4"/>
+    </row>
+    <row r="78" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C78" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D69" s="8"/>
-      <c r="E69" s="8"/>
-      <c r="F69" s="8"/>
-      <c r="G69" s="8"/>
-      <c r="H69" s="8"/>
-    </row>
-    <row r="70" spans="3:8" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="C70" s="6" t="s">
+      <c r="D78" s="8"/>
+      <c r="E78" s="8"/>
+      <c r="F78" s="8"/>
+      <c r="G78" s="8"/>
+      <c r="H78" s="8"/>
+    </row>
+    <row r="79" spans="3:9" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C79" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D70" s="6"/>
-      <c r="E70" s="6"/>
-      <c r="F70" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="G70" s="6"/>
-      <c r="H70" s="7" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="3:8" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="C71" s="6" t="s">
+      <c r="D79" s="6"/>
+      <c r="E79" s="6"/>
+      <c r="F79" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="G79" s="6"/>
+      <c r="H79" s="7" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="3:9" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C80" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D71" s="6"/>
-      <c r="E71" s="6"/>
-      <c r="F71" s="7"/>
-      <c r="G71" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="H71" s="6"/>
-    </row>
-    <row r="72" spans="3:8" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C72" s="4"/>
-      <c r="D72" s="4"/>
-      <c r="E72" s="4"/>
-      <c r="F72" s="4"/>
-      <c r="G72" s="4"/>
-      <c r="H72" s="4"/>
-    </row>
-    <row r="73" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C73" s="2" t="s">
+      <c r="D80" s="6"/>
+      <c r="E80" s="6"/>
+      <c r="F80" s="7"/>
+      <c r="G80" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="H80" s="6"/>
+    </row>
+    <row r="81" spans="3:9" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C81" s="4"/>
+      <c r="D81" s="4"/>
+      <c r="E81" s="4"/>
+      <c r="F81" s="4"/>
+      <c r="G81" s="4"/>
+      <c r="H81" s="4"/>
+    </row>
+    <row r="82" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C82" s="2" t="s">
         <v>11</v>
-      </c>
-      <c r="D73" s="2"/>
-      <c r="E73" s="2"/>
-      <c r="F73" s="1"/>
-      <c r="G73" s="2"/>
-      <c r="H73" s="2"/>
-    </row>
-    <row r="74" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C74" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D74" s="2"/>
-      <c r="E74" s="2"/>
-      <c r="F74" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G74" s="2"/>
-      <c r="H74" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C75" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D75" s="2"/>
-      <c r="E75" s="2"/>
-      <c r="F75" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G75" s="2"/>
-      <c r="H75" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C76" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D76" s="2"/>
-      <c r="E76" s="2"/>
-      <c r="F76" s="1"/>
-      <c r="G76" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H76" s="1"/>
-    </row>
-    <row r="77" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C77" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D77" s="2"/>
-      <c r="E77" s="2"/>
-      <c r="F77" s="1"/>
-      <c r="G77" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H77" s="1"/>
-    </row>
-    <row r="78" spans="3:8" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C78" s="4"/>
-      <c r="D78" s="4"/>
-      <c r="E78" s="4"/>
-      <c r="F78" s="4"/>
-      <c r="G78" s="4"/>
-      <c r="H78" s="5"/>
-    </row>
-    <row r="79" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C79" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D79" s="2"/>
-      <c r="E79" s="2"/>
-      <c r="F79" s="2"/>
-      <c r="G79" s="2"/>
-      <c r="H79" s="1"/>
-    </row>
-    <row r="80" spans="3:8" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C80" s="4"/>
-      <c r="D80" s="4"/>
-      <c r="E80" s="4"/>
-      <c r="F80" s="4"/>
-      <c r="G80" s="4"/>
-      <c r="H80" s="5"/>
-    </row>
-    <row r="81" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D81" s="2"/>
-      <c r="E81" s="2"/>
-      <c r="F81" s="1"/>
-      <c r="G81" s="2"/>
-      <c r="H81" s="1"/>
-    </row>
-    <row r="82" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C82" s="2" t="s">
-        <v>4</v>
       </c>
       <c r="D82" s="2"/>
       <c r="E82" s="2"/>
-      <c r="F82" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="F82" s="1"/>
       <c r="G82" s="2"/>
-      <c r="H82" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="H82" s="2"/>
+      <c r="I82" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="83" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C83" s="2" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="D83" s="2"/>
       <c r="E83" s="2"/>
@@ -1731,38 +1825,171 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="3:8" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C84" s="4"/>
-      <c r="D84" s="4"/>
-      <c r="E84" s="4"/>
-      <c r="F84" s="4"/>
-      <c r="G84" s="4"/>
-      <c r="H84" s="4"/>
-    </row>
-    <row r="85" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C85" s="3" t="s">
+    <row r="84" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C84" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D84" s="2"/>
+      <c r="E84" s="2"/>
+      <c r="F84" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G84" s="2"/>
+      <c r="H84" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C85" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D85" s="2"/>
+      <c r="E85" s="2"/>
+      <c r="F85" s="1"/>
+      <c r="G85" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H85" s="1"/>
+    </row>
+    <row r="86" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C86" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D86" s="2"/>
+      <c r="E86" s="2"/>
+      <c r="F86" s="1"/>
+      <c r="G86" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H86" s="1"/>
+    </row>
+    <row r="87" spans="3:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C87" s="4"/>
+      <c r="D87" s="4"/>
+      <c r="E87" s="4"/>
+      <c r="F87" s="4"/>
+      <c r="G87" s="4"/>
+      <c r="H87" s="5"/>
+    </row>
+    <row r="88" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C88" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D88" s="2"/>
+      <c r="E88" s="2"/>
+      <c r="F88" s="2"/>
+      <c r="G88" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H88" s="1"/>
+      <c r="I88" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="89" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C89" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D89" s="2"/>
+      <c r="E89" s="2"/>
+      <c r="F89" s="2"/>
+      <c r="G89" s="1"/>
+      <c r="H89" s="1"/>
+    </row>
+    <row r="90" spans="3:9" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C90" s="4"/>
+      <c r="D90" s="4"/>
+      <c r="E90" s="4"/>
+      <c r="F90" s="4"/>
+      <c r="G90" s="4"/>
+      <c r="H90" s="5"/>
+    </row>
+    <row r="91" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D91" s="2"/>
+      <c r="E91" s="2"/>
+      <c r="F91" s="1"/>
+      <c r="G91" s="2"/>
+      <c r="H91" s="1"/>
+      <c r="I91" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="92" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C92" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D92" s="2"/>
+      <c r="E92" s="2"/>
+      <c r="F92" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G92" s="2"/>
+      <c r="H92" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C93" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D93" s="2"/>
+      <c r="E93" s="2"/>
+      <c r="F93" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G93" s="2"/>
+      <c r="H93" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C94" s="4"/>
+      <c r="D94" s="4"/>
+      <c r="E94" s="4"/>
+      <c r="F94" s="4"/>
+      <c r="G94" s="4"/>
+      <c r="H94" s="4"/>
+    </row>
+    <row r="95" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C95" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D85" s="1"/>
-      <c r="E85" s="2"/>
-      <c r="F85" s="2"/>
-      <c r="G85" s="2"/>
-      <c r="H85" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C86" s="2" t="s">
+      <c r="D95" s="1"/>
+      <c r="E95" s="2"/>
+      <c r="F95" s="2"/>
+      <c r="G95" s="2"/>
+      <c r="H95" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C96" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D86" s="1"/>
-      <c r="E86" s="2"/>
-      <c r="F86" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G86" s="2"/>
-      <c r="H86" s="1" t="s">
-        <v>0</v>
+      <c r="D96" s="1"/>
+      <c r="E96" s="2"/>
+      <c r="F96" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G96" s="2"/>
+      <c r="H96" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C97" s="43" t="s">
+        <v>86</v>
+      </c>
+      <c r="D97" s="2"/>
+      <c r="E97" s="2"/>
+      <c r="F97" s="2"/>
+      <c r="G97" s="2"/>
+      <c r="H97" s="2"/>
+      <c r="I97" t="s">
+        <v>76</v>
       </c>
     </row>
   </sheetData>

--- a/LM_ProductBacklog.xlsx
+++ b/LM_ProductBacklog.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DEV\Love-Mirroring\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{482A62E5-AF42-4FDE-AF4E-7F0A4F85AA63}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6470E94A-3399-49F4-BE00-D099BD32C2D7}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ProductBacklog" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="85">
   <si>
     <t>x</t>
   </si>
@@ -255,15 +255,6 @@
     <t>Hans</t>
   </si>
   <si>
-    <t>Tim</t>
-  </si>
-  <si>
-    <t>Seb</t>
-  </si>
-  <si>
-    <t>Paul</t>
-  </si>
-  <si>
     <t>Restreindre certaines actions sur compte externe</t>
   </si>
   <si>
@@ -274,9 +265,6 @@
   </si>
   <si>
     <t>Intégrer l'algorithme de match</t>
-  </si>
-  <si>
-    <t>Seb et Tim</t>
   </si>
   <si>
     <t>Avoir toujours au moins un admin</t>
@@ -809,8 +797,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99E4F70C-6BA7-4190-9FB4-D13AF4EA1C61}">
   <dimension ref="C6:I97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="C89" sqref="C89"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
@@ -1128,7 +1116,9 @@
       <c r="E29" s="21"/>
       <c r="F29" s="20"/>
       <c r="G29" s="21"/>
-      <c r="H29" s="21"/>
+      <c r="H29" s="20" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="30" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C30" s="21" t="s">
@@ -1155,9 +1145,6 @@
         <v>0</v>
       </c>
       <c r="H31" s="22"/>
-      <c r="I31" t="s">
-        <v>76</v>
-      </c>
     </row>
     <row r="32" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C32" s="21" t="s">
@@ -1173,9 +1160,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C33" s="21" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D33" s="21"/>
       <c r="E33" s="21"/>
@@ -1183,25 +1170,23 @@
       <c r="G33" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="H33" s="20"/>
-      <c r="I33" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="34" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="H33" s="20" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C34" s="21" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="D34" s="21"/>
       <c r="E34" s="21"/>
       <c r="F34" s="20"/>
       <c r="G34" s="20"/>
-      <c r="H34" s="20"/>
-      <c r="I34" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="35" spans="3:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H34" s="20" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="3:8" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C35" s="4"/>
       <c r="D35" s="4"/>
       <c r="E35" s="4"/>
@@ -1209,7 +1194,7 @@
       <c r="G35" s="4"/>
       <c r="H35" s="4"/>
     </row>
-    <row r="36" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C36" s="19" t="s">
         <v>45</v>
       </c>
@@ -1221,7 +1206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="3:9" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C37" s="17" t="s">
         <v>44</v>
       </c>
@@ -1235,7 +1220,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="3:9" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C38" s="17" t="s">
         <v>43</v>
       </c>
@@ -1249,7 +1234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="3:9" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C39" s="17" t="s">
         <v>42</v>
       </c>
@@ -1263,7 +1248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="3:9" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C40" s="17" t="s">
         <v>41</v>
       </c>
@@ -1277,7 +1262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="3:9" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C41" s="17" t="s">
         <v>40</v>
       </c>
@@ -1291,7 +1276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="3:9" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C42" s="17" t="s">
         <v>39</v>
       </c>
@@ -1305,7 +1290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="3:9" ht="6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:8" ht="6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C43" s="4"/>
       <c r="D43" s="4"/>
       <c r="E43" s="15"/>
@@ -1313,7 +1298,7 @@
       <c r="G43" s="4"/>
       <c r="H43" s="4"/>
     </row>
-    <row r="44" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C44" s="14" t="s">
         <v>38</v>
       </c>
@@ -1325,7 +1310,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="3:9" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C45" s="13" t="s">
         <v>37</v>
       </c>
@@ -1335,9 +1320,11 @@
       </c>
       <c r="F45" s="13"/>
       <c r="G45" s="13"/>
-      <c r="H45" s="13"/>
-    </row>
-    <row r="46" spans="3:9" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="H45" s="12" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="3:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C46" s="13" t="s">
         <v>36</v>
       </c>
@@ -1347,9 +1334,11 @@
       </c>
       <c r="F46" s="13"/>
       <c r="G46" s="13"/>
-      <c r="H46" s="13"/>
-    </row>
-    <row r="47" spans="3:9" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="H46" s="12" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="3:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C47" s="13" t="s">
         <v>35</v>
       </c>
@@ -1363,7 +1352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="3:9" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C48" s="13" t="s">
         <v>34</v>
       </c>
@@ -1373,9 +1362,11 @@
       </c>
       <c r="F48" s="12"/>
       <c r="G48" s="13"/>
-      <c r="H48" s="12"/>
-    </row>
-    <row r="49" spans="3:9" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="H48" s="12" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C49" s="13" t="s">
         <v>33</v>
       </c>
@@ -1389,7 +1380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="3:9" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C50" s="13" t="s">
         <v>32</v>
       </c>
@@ -1400,11 +1391,8 @@
         <v>0</v>
       </c>
       <c r="H50" s="12"/>
-      <c r="I50" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="51" spans="3:9" outlineLevel="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="51" spans="3:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C51" s="13" t="s">
         <v>31</v>
       </c>
@@ -1418,7 +1406,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="3:9" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C52" s="13" t="s">
         <v>30</v>
       </c>
@@ -1432,7 +1420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="3:9" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C53" s="13" t="s">
         <v>29</v>
       </c>
@@ -1446,7 +1434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="3:9" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C54" s="13" t="s">
         <v>28</v>
       </c>
@@ -1460,7 +1448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="3:9" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C55" s="13" t="s">
         <v>27</v>
       </c>
@@ -1474,7 +1462,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="3:9" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C56" s="13" t="s">
         <v>26</v>
       </c>
@@ -1488,33 +1476,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="3:9" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C57" s="13" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D57" s="13"/>
       <c r="E57" s="12"/>
       <c r="F57" s="12"/>
       <c r="G57" s="12"/>
-      <c r="H57" s="12"/>
-      <c r="I57" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="58" spans="3:9" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="H57" s="12" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C58" s="13" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D58" s="13"/>
       <c r="E58" s="12"/>
       <c r="F58" s="12"/>
       <c r="G58" s="12"/>
-      <c r="H58" s="12"/>
-      <c r="I58" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="59" spans="3:9" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H58" s="12" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:8" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C59" s="4"/>
       <c r="D59" s="4"/>
       <c r="E59" s="5"/>
@@ -1522,7 +1508,7 @@
       <c r="G59" s="4"/>
       <c r="H59" s="4"/>
     </row>
-    <row r="60" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C60" s="3" t="s">
         <v>25</v>
       </c>
@@ -1532,9 +1518,11 @@
       <c r="G60" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H60" s="2"/>
-    </row>
-    <row r="61" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="H60" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C61" s="2" t="s">
         <v>73</v>
       </c>
@@ -1544,14 +1532,13 @@
       <c r="G61" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H61" s="2"/>
-      <c r="I61" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="62" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="H61" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C62" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" s="2"/>
@@ -1559,12 +1546,11 @@
       <c r="G62" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H62" s="2"/>
-      <c r="I62" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="63" spans="3:9" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H62" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:8" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C63" s="4"/>
       <c r="D63" s="4"/>
       <c r="E63" s="4"/>
@@ -1572,7 +1558,7 @@
       <c r="G63" s="4"/>
       <c r="H63" s="4"/>
     </row>
-    <row r="64" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C64" s="2" t="s">
         <v>24</v>
       </c>
@@ -1583,11 +1569,8 @@
         <v>0</v>
       </c>
       <c r="H64" s="2"/>
-      <c r="I64" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="65" spans="3:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="65" spans="3:8" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C65" s="4"/>
       <c r="D65" s="4"/>
       <c r="E65" s="4"/>
@@ -1595,7 +1578,7 @@
       <c r="G65" s="4"/>
       <c r="H65" s="4"/>
     </row>
-    <row r="66" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C66" s="11" t="s">
         <v>23</v>
       </c>
@@ -1603,9 +1586,11 @@
       <c r="E66" s="10"/>
       <c r="F66" s="11"/>
       <c r="G66" s="11"/>
-      <c r="H66" s="11"/>
-    </row>
-    <row r="67" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="H66" s="10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C67" s="9" t="s">
         <v>22</v>
       </c>
@@ -1618,11 +1603,8 @@
       <c r="H67" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="I67" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="68" spans="3:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="68" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C68" s="9" t="s">
         <v>21</v>
       </c>
@@ -1636,7 +1618,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="3:9" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="3:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C69" s="9" t="s">
         <v>20</v>
       </c>
@@ -1650,7 +1632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="3:9" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="3:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C70" s="9" t="s">
         <v>19</v>
       </c>
@@ -1664,7 +1646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="3:9" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="3:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C71" s="9" t="s">
         <v>18</v>
       </c>
@@ -1678,7 +1660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="3:9" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="3:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C72" s="9" t="s">
         <v>17</v>
       </c>
@@ -1692,7 +1674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="3:9" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="3:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C73" s="9" t="s">
         <v>16</v>
       </c>
@@ -1706,7 +1688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="3:9" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="3:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C74" s="9" t="s">
         <v>15</v>
       </c>
@@ -1716,11 +1698,13 @@
       <c r="G74" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="H74" s="9"/>
-    </row>
-    <row r="75" spans="3:9" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="H74" s="10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="3:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C75" s="9" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D75" s="10"/>
       <c r="E75" s="10"/>
@@ -1728,25 +1712,25 @@
       <c r="G75" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="H75" s="9"/>
-      <c r="I75" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="76" spans="3:9" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="H75" s="10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="3:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C76" s="9" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D76" s="10"/>
       <c r="E76" s="10"/>
       <c r="F76" s="9"/>
-      <c r="G76" s="10"/>
-      <c r="H76" s="9"/>
-      <c r="I76" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="77" spans="3:9" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G76" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="H76" s="10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="3:8" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C77" s="4"/>
       <c r="D77" s="5"/>
       <c r="E77" s="5"/>
@@ -1754,7 +1738,7 @@
       <c r="G77" s="4"/>
       <c r="H77" s="4"/>
     </row>
-    <row r="78" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="78" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C78" s="8" t="s">
         <v>14</v>
       </c>
@@ -1762,9 +1746,11 @@
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
-      <c r="H78" s="8"/>
-    </row>
-    <row r="79" spans="3:9" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="H78" s="7" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="3:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C79" s="6" t="s">
         <v>13</v>
       </c>
@@ -1778,7 +1764,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="3:9" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="3:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C80" s="6" t="s">
         <v>12</v>
       </c>
@@ -1788,9 +1774,11 @@
       <c r="G80" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="H80" s="6"/>
-    </row>
-    <row r="81" spans="3:9" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H80" s="7" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="3:8" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C81" s="4"/>
       <c r="D81" s="4"/>
       <c r="E81" s="4"/>
@@ -1798,7 +1786,7 @@
       <c r="G81" s="4"/>
       <c r="H81" s="4"/>
     </row>
-    <row r="82" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="82" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C82" s="2" t="s">
         <v>11</v>
       </c>
@@ -1806,12 +1794,11 @@
       <c r="E82" s="2"/>
       <c r="F82" s="1"/>
       <c r="G82" s="2"/>
-      <c r="H82" s="2"/>
-      <c r="I82" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="83" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="H82" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C83" s="2" t="s">
         <v>10</v>
       </c>
@@ -1825,7 +1812,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="84" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C84" s="2" t="s">
         <v>9</v>
       </c>
@@ -1839,7 +1826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="85" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C85" s="2" t="s">
         <v>8</v>
       </c>
@@ -1849,9 +1836,11 @@
       <c r="G85" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H85" s="1"/>
-    </row>
-    <row r="86" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="H85" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C86" s="2" t="s">
         <v>7</v>
       </c>
@@ -1861,9 +1850,11 @@
       <c r="G86" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H86" s="1"/>
-    </row>
-    <row r="87" spans="3:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H86" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:8" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C87" s="4"/>
       <c r="D87" s="4"/>
       <c r="E87" s="4"/>
@@ -1871,7 +1862,7 @@
       <c r="G87" s="4"/>
       <c r="H87" s="5"/>
     </row>
-    <row r="88" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="88" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C88" s="2" t="s">
         <v>6</v>
       </c>
@@ -1881,22 +1872,23 @@
       <c r="G88" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H88" s="1"/>
-      <c r="I88" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="89" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="H88" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C89" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D89" s="2"/>
       <c r="E89" s="2"/>
       <c r="F89" s="2"/>
       <c r="G89" s="1"/>
-      <c r="H89" s="1"/>
-    </row>
-    <row r="90" spans="3:9" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H89" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:8" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C90" s="4"/>
       <c r="D90" s="4"/>
       <c r="E90" s="4"/>
@@ -1904,7 +1896,7 @@
       <c r="G90" s="4"/>
       <c r="H90" s="5"/>
     </row>
-    <row r="91" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="91" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C91" s="3" t="s">
         <v>5</v>
       </c>
@@ -1912,12 +1904,11 @@
       <c r="E91" s="2"/>
       <c r="F91" s="1"/>
       <c r="G91" s="2"/>
-      <c r="H91" s="1"/>
-      <c r="I91" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="92" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="H91" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C92" s="2" t="s">
         <v>4</v>
       </c>
@@ -1931,7 +1922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="93" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C93" s="2" t="s">
         <v>3</v>
       </c>
@@ -1945,7 +1936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="3:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="3:8" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C94" s="4"/>
       <c r="D94" s="4"/>
       <c r="E94" s="4"/>
@@ -1953,7 +1944,7 @@
       <c r="G94" s="4"/>
       <c r="H94" s="4"/>
     </row>
-    <row r="95" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="95" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C95" s="3" t="s">
         <v>2</v>
       </c>
@@ -1965,7 +1956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="96" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C96" s="2" t="s">
         <v>1</v>
       </c>
@@ -1979,17 +1970,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="97" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C97" s="43" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D97" s="2"/>
       <c r="E97" s="2"/>
       <c r="F97" s="2"/>
       <c r="G97" s="2"/>
-      <c r="H97" s="2"/>
-      <c r="I97" t="s">
-        <v>76</v>
+      <c r="H97" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
